--- a/AB020_機能設計書/AA010_メッセージ一覧/CA020_ログメッセージ一覧.xlsx
+++ b/AB020_機能設計書/AA010_メッセージ一覧/CA020_ログメッセージ一覧.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\投資システム\No002_三段階スクリーン・トレーディング・システム\ドキュメント\AB020_機能設計書\AA010_メッセージ一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6349AD-0724-4F66-8220-73C837A716DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AE0501-EC61-49F6-A7F8-868D3F53F0DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13308" yWindow="8028" windowWidth="12120" windowHeight="5772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18720" yWindow="11232" windowWidth="14124" windowHeight="5940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログメッセージ一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="ログメッセージプロパティファイル" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -436,7 +437,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -501,4 +502,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5315FE5F-69C1-4395-9508-94E96E4B9D4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="str">
+        <f>ログメッセージ一覧!D2&amp;"="&amp;ログメッセージ一覧!E2</f>
+        <v>I00001=三段階スクリーン・トレーディング・システムＤＡＯ</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>